--- a/biology/Médecine/Sphincter/Sphincter.xlsx
+++ b/biology/Médecine/Sphincter/Sphincter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sphincter est un muscle circulaire situé autour d’un conduit naturel (tube digestif, vessie, etc.). Sa contraction permet de fermer partiellement ou totalement un orifice ou un conduit du corps.
-Sa commande peut être volontaire ou automatique (en réflexe à certaines stimulations)[1].
+Sa commande peut être volontaire ou automatique (en réflexe à certaines stimulations).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste de sphincters</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux sphincters sont :
 l'anus comporte deux sphincters, le sphincter interne de l’anus et le sphincter externe de l’anus, qui contrôlent la sortie des matières fécales du corps humain. Le sphincter interne de l'anus se contracte inconsciemment, et le sphincter externe de l'anus se contracte volontairement ;
